--- a/shoes.xlsx
+++ b/shoes.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="33">
   <si>
     <t>abbot</t>
   </si>
@@ -69,13 +70,67 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Shoe Sizes</t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t>Brands</t>
+  </si>
+  <si>
+    <t>Prices</t>
+  </si>
+  <si>
+    <t>Marie</t>
+  </si>
+  <si>
+    <t>Graffetz</t>
+  </si>
+  <si>
+    <t>Vanessa</t>
+  </si>
+  <si>
+    <t>Schtillet</t>
+  </si>
+  <si>
+    <t>Lucia</t>
+  </si>
+  <si>
+    <t>Cormano</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Tinghill</t>
+  </si>
+  <si>
+    <t>Natalie</t>
+  </si>
+  <si>
+    <t>Williford</t>
+  </si>
+  <si>
+    <t>Francine</t>
+  </si>
+  <si>
+    <t>Ruth</t>
+  </si>
+  <si>
+    <t>Abbothill</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,13 +138,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -213,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -228,6 +308,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,14 +633,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S10" sqref="S10"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="22" width="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
@@ -582,45 +725,57 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="7" t="s">
+      <c r="B2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="25"/>
+      <c r="O2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="27" t="s">
         <v>11</v>
       </c>
     </row>
@@ -632,8 +787,12 @@
         <v>11</v>
       </c>
       <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="D3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="10" t="s">
@@ -650,14 +809,24 @@
       </c>
       <c r="N3" s="9"/>
       <c r="O3" s="10"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="9"/>
+      <c r="P3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="R3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
+      <c r="S3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="V3" s="10" t="s">
         <v>11</v>
       </c>
@@ -669,12 +838,24 @@
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
+      <c r="C4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="I4" s="8" t="s">
         <v>11</v>
       </c>
@@ -689,7 +870,9 @@
       <c r="R4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="9"/>
+      <c r="S4" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="T4" s="9" t="s">
         <v>11</v>
       </c>
@@ -704,8 +887,12 @@
         <v>11</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
@@ -736,17 +923,31 @@
       <c r="A6">
         <v>8</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
+      <c r="B6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="I6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -764,27 +965,41 @@
         <v>11</v>
       </c>
       <c r="U6" s="9"/>
-      <c r="V6" s="10"/>
+      <c r="V6" s="20" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>9</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="9"/>
+      <c r="B7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="G7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="8"/>
+      <c r="H7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="J7" s="9"/>
-      <c r="K7" s="9" t="s">
-        <v>14</v>
+      <c r="K7" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -792,7 +1007,9 @@
       <c r="O7" s="10"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
+      <c r="R7" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="S7" s="9" t="s">
         <v>11</v>
       </c>
@@ -806,31 +1023,53 @@
       <c r="A8">
         <v>10</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="11"/>
+      <c r="I8" s="32" t="s">
+        <v>15</v>
+      </c>
       <c r="J8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
+      <c r="K8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="O8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
+      <c r="P8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" s="31" t="s">
+        <v>15</v>
+      </c>
       <c r="S8" s="12" t="s">
         <v>11</v>
       </c>
@@ -840,7 +1079,9 @@
       <c r="U8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="V8" s="13"/>
+      <c r="V8" s="22" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -857,9 +1098,13 @@
       <c r="H9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="K9" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -876,9 +1121,13 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="8"/>
+      <c r="I10" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="K10" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -895,9 +1144,13 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="8"/>
+      <c r="I11" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="K11" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -914,16 +1167,18 @@
       <c r="D12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>14</v>
+      <c r="E12" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="8"/>
+      <c r="I12" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="J12" s="9"/>
-      <c r="K12" s="9" t="s">
-        <v>14</v>
+      <c r="K12" s="33" t="s">
+        <v>15</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
@@ -941,9 +1196,13 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="8"/>
+      <c r="I13" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="K13" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -960,9 +1219,13 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="8"/>
+      <c r="I14" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="K14" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9" t="s">
@@ -985,9 +1248,13 @@
         <v>11</v>
       </c>
       <c r="H15" s="13"/>
-      <c r="I15" s="11"/>
+      <c r="I15" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="K15" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
@@ -1005,7 +1272,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1017,7 +1284,7 @@
       <c r="G17" s="9"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1029,7 +1296,7 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1041,7 +1308,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1057,7 +1324,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1071,7 +1338,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1085,7 +1352,1403 @@
       <c r="G22" s="12"/>
       <c r="H22" s="13"/>
     </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I29" s="18"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="22" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="4">
+        <v>125</v>
+      </c>
+      <c r="Q1">
+        <v>155</v>
+      </c>
+      <c r="R1">
+        <v>170</v>
+      </c>
+      <c r="S1">
+        <v>185</v>
+      </c>
+      <c r="T1">
+        <v>215</v>
+      </c>
+      <c r="U1">
+        <v>245</v>
+      </c>
+      <c r="V1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="23">
+        <v>4</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="37"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="U3" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" s="42"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="U4" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4" s="42"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="U5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="V5" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="W5" s="42"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="U6" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="W6" s="42"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="T7" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="U7" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="V7" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="W7" s="42"/>
+    </row>
+    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="T8" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="U8" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="V8" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="W8" s="42"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>125</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="35"/>
+      <c r="K9" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="36"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>155</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="40"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>170</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>185</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>215</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>245</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+    </row>
+    <row r="15" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>260</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="45"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+    </row>
+    <row r="22" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C25" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>